--- a/SimpleLogRegression/ml_data.xlsx
+++ b/SimpleLogRegression/ml_data.xlsx
@@ -149,16 +149,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -237,7 +237,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,11 +247,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,7 +259,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,7 +275,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -348,13 +348,13 @@
   <dimension ref="A1:G642"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D275" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="E656" activeCellId="0" sqref="E656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -15128,13 +15128,13 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17143,7 +17143,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
